--- a/database/problems/ahli komada - problem.xlsx
+++ b/database/problems/ahli komada - problem.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="1253">
   <si>
     <t>MOHAMAD ANUAR BIN PIR MOHAMAD</t>
   </si>
@@ -3456,6 +3456,333 @@
   </si>
   <si>
     <t>1754</t>
+  </si>
+  <si>
+    <t>30.08.1983</t>
+  </si>
+  <si>
+    <t>830830-02-5518</t>
+  </si>
+  <si>
+    <t>MALINDA DEWI BT ARIFFIN</t>
+  </si>
+  <si>
+    <t>3100</t>
+  </si>
+  <si>
+    <t>1534</t>
+  </si>
+  <si>
+    <t>N 1</t>
+  </si>
+  <si>
+    <t>04.01.1976</t>
+  </si>
+  <si>
+    <t>760104-02-5088</t>
+  </si>
+  <si>
+    <t>NORAINI BT AHMAD</t>
+  </si>
+  <si>
+    <t>3491</t>
+  </si>
+  <si>
+    <t>0924</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>MOHAMAD BIN HAJAR</t>
+  </si>
+  <si>
+    <t>600226-02-5649</t>
+  </si>
+  <si>
+    <t>26.02.1960</t>
+  </si>
+  <si>
+    <t>0595</t>
+  </si>
+  <si>
+    <t>1936</t>
+  </si>
+  <si>
+    <t>SHAFIE B IBRAHIM</t>
+  </si>
+  <si>
+    <t>571104-02-5907</t>
+  </si>
+  <si>
+    <t>04.11.1957</t>
+  </si>
+  <si>
+    <t>0875</t>
+  </si>
+  <si>
+    <t>2244</t>
+  </si>
+  <si>
+    <t>ZAINUDDIN B MAT ZAKARIA</t>
+  </si>
+  <si>
+    <t>651201-02-5765</t>
+  </si>
+  <si>
+    <t>01.12.1965</t>
+  </si>
+  <si>
+    <t>PEGAWAI PERTANIAN</t>
+  </si>
+  <si>
+    <t>G 52</t>
+  </si>
+  <si>
+    <t>0940</t>
+  </si>
+  <si>
+    <t>2340</t>
+  </si>
+  <si>
+    <t>ABDUL MUTHOLIB B MAT NOOR</t>
+  </si>
+  <si>
+    <t>641210-02-6015</t>
+  </si>
+  <si>
+    <t>10.12.1964</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>2663</t>
+  </si>
+  <si>
+    <t>ROZAIDI BIN SHAREE</t>
+  </si>
+  <si>
+    <t>690915-07-5029</t>
+  </si>
+  <si>
+    <t>15.09.1969</t>
+  </si>
+  <si>
+    <t>PEG. PERTANIAN</t>
+  </si>
+  <si>
+    <t>G 48</t>
+  </si>
+  <si>
+    <t>458.00 p/b</t>
+  </si>
+  <si>
+    <t>SAKINAH BT AHMAD TARMIZI</t>
+  </si>
+  <si>
+    <t>830208-14-5704</t>
+  </si>
+  <si>
+    <t>08.02.1983</t>
+  </si>
+  <si>
+    <t>MARZIANI BT MAHMUD</t>
+  </si>
+  <si>
+    <t>810615-02-5584</t>
+  </si>
+  <si>
+    <t>PEN.PEG.T.MAKLUMAT</t>
+  </si>
+  <si>
+    <t>F 26</t>
+  </si>
+  <si>
+    <t>0592</t>
+  </si>
+  <si>
+    <t>1817</t>
+  </si>
+  <si>
+    <t>ARIFFIN BIN ABU</t>
+  </si>
+  <si>
+    <t>600227-02-5683</t>
+  </si>
+  <si>
+    <t>27.02.1960</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEN. PEG. PERTANIAN </t>
+  </si>
+  <si>
+    <t>NUR AZZURAINI BT CHE MOHD ATAR</t>
+  </si>
+  <si>
+    <t>830911-10-5392</t>
+  </si>
+  <si>
+    <t>11.09.1983</t>
+  </si>
+  <si>
+    <t>10.06.1970</t>
+  </si>
+  <si>
+    <t>700610-02-5078</t>
+  </si>
+  <si>
+    <t>HASNAH BT ABD KARIM</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>1064</t>
+  </si>
+  <si>
+    <t>20.06.1966</t>
+  </si>
+  <si>
+    <t>660620-02-6273</t>
+  </si>
+  <si>
+    <t>MAZELAN B ABD MANAF</t>
+  </si>
+  <si>
+    <t>17.05.1965</t>
+  </si>
+  <si>
+    <t>650517-02-5409</t>
+  </si>
+  <si>
+    <t>IBRAHIM B MD ZAIN</t>
+  </si>
+  <si>
+    <t>2362</t>
+  </si>
+  <si>
+    <t>22.06.1962</t>
+  </si>
+  <si>
+    <t>620622-02-5083</t>
+  </si>
+  <si>
+    <t>AHMAD BIN ISMAIL</t>
+  </si>
+  <si>
+    <t>2175</t>
+  </si>
+  <si>
+    <t>0761</t>
+  </si>
+  <si>
+    <t>17.01.1985</t>
+  </si>
+  <si>
+    <t>850117-02-5553</t>
+  </si>
+  <si>
+    <t>MUHAMAD SYIHAN BIN OTHAMAN</t>
+  </si>
+  <si>
+    <t>17.03.1958</t>
+  </si>
+  <si>
+    <t>580317-02-5833</t>
+  </si>
+  <si>
+    <t>CHE OMAR B AHMAD @ AWANG HARUN</t>
+  </si>
+  <si>
+    <t>2465</t>
+  </si>
+  <si>
+    <t>1070</t>
+  </si>
+  <si>
+    <t>17/51982</t>
+  </si>
+  <si>
+    <t>PEM . AWAM</t>
+  </si>
+  <si>
+    <t>01.05.1972</t>
+  </si>
+  <si>
+    <t>720501-02-5325</t>
+  </si>
+  <si>
+    <t>MOHD AZID B HASSAN</t>
+  </si>
+  <si>
+    <t>31.05.1968</t>
+  </si>
+  <si>
+    <t>680531-09-5099</t>
+  </si>
+  <si>
+    <t>SHAHIDI @ SHAHARANI BIN OTHMAN</t>
+  </si>
+  <si>
+    <t>2390</t>
+  </si>
+  <si>
+    <t>1052</t>
+  </si>
+  <si>
+    <t>24.06.1984</t>
+  </si>
+  <si>
+    <t>840624-08-6028</t>
+  </si>
+  <si>
+    <t>SITI FAIRUZ BT RAHIM</t>
+  </si>
+  <si>
+    <t>19.07.1968</t>
+  </si>
+  <si>
+    <t>680719-02-5615</t>
+  </si>
+  <si>
+    <t>ABDUL GHAFAR BIN ABDUL KADIR</t>
+  </si>
+  <si>
+    <t>3161</t>
+  </si>
+  <si>
+    <t>1236</t>
+  </si>
+  <si>
+    <t>16.02.1961</t>
+  </si>
+  <si>
+    <t>610216-02-5257</t>
+  </si>
+  <si>
+    <t>ABDUL HAMID B ABDUL RAHIM</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>0744</t>
+  </si>
+  <si>
+    <t>18.11.1962</t>
+  </si>
+  <si>
+    <t>621118-02-5759</t>
+  </si>
+  <si>
+    <t>SAREHNYAN B SAREH YOB</t>
+  </si>
+  <si>
+    <t>2559</t>
+  </si>
+  <si>
+    <t>1097</t>
   </si>
 </sst>
 </file>
@@ -3467,7 +3794,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3494,6 +3821,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Lucida Bright"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Myanmar Text"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3580,7 +3917,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3721,6 +4058,13 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4005,14 +4349,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC257"/>
+  <dimension ref="A1:BC280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A258" sqref="A258"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AT278" sqref="AT278"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" hidden="1" customWidth="1"/>
@@ -4066,7 +4410,7 @@
     <col min="55" max="55" width="22.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="12" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="12" customFormat="1" ht="72.75" customHeight="1">
       <c r="A1" s="39" t="s">
         <v>125</v>
       </c>
@@ -4233,7 +4577,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" s="12" customFormat="1">
       <c r="A2" s="1">
         <v>941</v>
       </c>
@@ -4382,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" s="12" customFormat="1">
       <c r="A3" s="1">
         <v>818</v>
       </c>
@@ -4531,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" s="12" customFormat="1">
       <c r="A4" s="1">
         <v>286</v>
       </c>
@@ -4684,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" s="12" customFormat="1">
       <c r="A5" s="1">
         <v>417</v>
       </c>
@@ -4833,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" s="12" customFormat="1">
       <c r="A6" s="1">
         <v>954</v>
       </c>
@@ -4976,7 +5320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" s="12" customFormat="1">
       <c r="A7" s="1">
         <v>274</v>
       </c>
@@ -5107,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" s="12" customFormat="1">
       <c r="A8" s="13">
         <v>978</v>
       </c>
@@ -5242,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" s="12" customFormat="1">
       <c r="A9" s="13">
         <v>959</v>
       </c>
@@ -5373,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" s="12" customFormat="1">
       <c r="A10" s="1">
         <v>78</v>
       </c>
@@ -5526,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" s="12" customFormat="1">
       <c r="A11" s="1">
         <v>287</v>
       </c>
@@ -5679,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" s="12" customFormat="1">
       <c r="A12" s="1">
         <v>271</v>
       </c>
@@ -5832,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" s="12" customFormat="1">
       <c r="A13" s="1">
         <v>231</v>
       </c>
@@ -5985,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" s="12" customFormat="1">
       <c r="A14" s="1">
         <v>904</v>
       </c>
@@ -6130,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" s="12" customFormat="1">
       <c r="A15" s="1">
         <v>445</v>
       </c>
@@ -6279,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" s="12" customFormat="1">
       <c r="A16" s="13">
         <v>966</v>
       </c>
@@ -6412,7 +6756,7 @@
       </c>
       <c r="BC16" s="15"/>
     </row>
-    <row r="17" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" s="12" customFormat="1">
       <c r="A17" s="1">
         <v>940</v>
       </c>
@@ -6561,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" s="12" customFormat="1">
       <c r="A18" s="1">
         <v>829</v>
       </c>
@@ -6704,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" s="12" customFormat="1">
       <c r="A19" s="13">
         <v>964</v>
       </c>
@@ -6839,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" s="12" customFormat="1">
       <c r="A20" s="1">
         <v>945</v>
       </c>
@@ -6978,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" s="12" customFormat="1">
       <c r="A21" s="1">
         <v>517</v>
       </c>
@@ -7127,7 +7471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" s="12" customFormat="1">
       <c r="A22" s="1">
         <v>502</v>
       </c>
@@ -7276,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" s="12" customFormat="1">
       <c r="A23" s="1">
         <v>713</v>
       </c>
@@ -7425,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" s="12" customFormat="1">
       <c r="A24" s="1">
         <v>156</v>
       </c>
@@ -7578,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" s="12" customFormat="1">
       <c r="A25" s="1">
         <v>779</v>
       </c>
@@ -7727,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" s="12" customFormat="1">
       <c r="A26" s="1">
         <v>490</v>
       </c>
@@ -7876,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" s="12" customFormat="1">
       <c r="A27" s="1">
         <v>888</v>
       </c>
@@ -8007,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" s="12" customFormat="1">
       <c r="A28" s="1">
         <v>858</v>
       </c>
@@ -8152,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" s="12" customFormat="1">
       <c r="A29" s="1">
         <v>953</v>
       </c>
@@ -8295,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" s="12" customFormat="1">
       <c r="A30" s="13">
         <v>973</v>
       </c>
@@ -8430,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" s="12" customFormat="1">
       <c r="A31" s="1">
         <v>908</v>
       </c>
@@ -8575,7 +8919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" s="12" customFormat="1">
       <c r="A32" s="13">
         <v>969</v>
       </c>
@@ -8710,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" s="12" customFormat="1">
       <c r="A33" s="1">
         <v>950</v>
       </c>
@@ -8853,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" s="12" customFormat="1">
       <c r="A34" s="1">
         <v>903</v>
       </c>
@@ -8998,7 +9342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" s="12" customFormat="1">
       <c r="A35" s="1">
         <v>891</v>
       </c>
@@ -9129,7 +9473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:55" s="12" customFormat="1">
       <c r="A36" s="1">
         <v>573</v>
       </c>
@@ -9278,7 +9622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55" s="12" customFormat="1">
       <c r="A37" s="1">
         <v>71</v>
       </c>
@@ -9431,7 +9775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" s="12" customFormat="1">
       <c r="A38" s="1">
         <v>480</v>
       </c>
@@ -9580,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:55" s="12" customFormat="1">
       <c r="A39" s="1">
         <v>830</v>
       </c>
@@ -9723,7 +10067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" s="12" customFormat="1">
       <c r="A40" s="1">
         <v>387</v>
       </c>
@@ -9872,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:55" s="12" customFormat="1">
       <c r="A41" s="1">
         <v>828</v>
       </c>
@@ -10015,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55" s="12" customFormat="1">
       <c r="A42" s="1">
         <v>841</v>
       </c>
@@ -10158,7 +10502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55" s="12" customFormat="1">
       <c r="A43" s="1">
         <v>886</v>
       </c>
@@ -10289,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:55" s="12" customFormat="1">
       <c r="A44" s="1">
         <v>859</v>
       </c>
@@ -10434,7 +10778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:55" s="12" customFormat="1">
       <c r="A45" s="1">
         <v>765</v>
       </c>
@@ -10583,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55" s="12" customFormat="1">
       <c r="A46" s="1">
         <v>887</v>
       </c>
@@ -10710,7 +11054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:55" s="12" customFormat="1">
       <c r="A47" s="1">
         <v>832</v>
       </c>
@@ -10853,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:55" s="12" customFormat="1">
       <c r="A48" s="13">
         <v>967</v>
       </c>
@@ -10988,7 +11332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:55" s="12" customFormat="1">
       <c r="A49" s="1">
         <v>860</v>
       </c>
@@ -11133,7 +11477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" s="12" customFormat="1">
       <c r="A50" s="1">
         <v>855</v>
       </c>
@@ -11278,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:55" s="12" customFormat="1">
       <c r="A51" s="1">
         <v>889</v>
       </c>
@@ -11409,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:55" s="12" customFormat="1">
       <c r="A52" s="1">
         <v>318</v>
       </c>
@@ -11558,7 +11902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:55" s="12" customFormat="1">
       <c r="A53" s="1">
         <v>164</v>
       </c>
@@ -11711,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:55" s="12" customFormat="1">
       <c r="A54" s="1">
         <v>847</v>
       </c>
@@ -11854,7 +12198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:55" s="12" customFormat="1">
       <c r="A55" s="1">
         <v>848</v>
       </c>
@@ -11997,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:55" s="12" customFormat="1">
       <c r="A56" s="1">
         <v>422</v>
       </c>
@@ -12146,7 +12490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:55" s="12" customFormat="1">
       <c r="A57" s="1">
         <v>127</v>
       </c>
@@ -12279,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:55" s="12" customFormat="1">
       <c r="A58" s="1">
         <v>878</v>
       </c>
@@ -12424,7 +12768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:55" s="12" customFormat="1">
       <c r="A59" s="1">
         <v>833</v>
       </c>
@@ -12567,7 +12911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:55" s="12" customFormat="1">
       <c r="A60" s="1">
         <v>203</v>
       </c>
@@ -12720,7 +13064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:55" s="12" customFormat="1">
       <c r="A61" s="1">
         <v>837</v>
       </c>
@@ -12863,7 +13207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:55" s="12" customFormat="1">
       <c r="A62" s="1">
         <v>132</v>
       </c>
@@ -12996,7 +13340,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:55" s="12" customFormat="1">
       <c r="A63" s="1">
         <v>839</v>
       </c>
@@ -13139,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:55" s="12" customFormat="1">
       <c r="A64" s="1">
         <v>875</v>
       </c>
@@ -13284,7 +13628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:55" s="12" customFormat="1">
       <c r="A65" s="1">
         <v>879</v>
       </c>
@@ -13429,7 +13773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:55" s="12" customFormat="1">
       <c r="A66" s="1">
         <v>881</v>
       </c>
@@ -13574,7 +13918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:55" s="12" customFormat="1">
       <c r="A67" s="1">
         <v>58</v>
       </c>
@@ -13703,7 +14047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:55" s="12" customFormat="1">
       <c r="A68" s="1">
         <v>876</v>
       </c>
@@ -13848,7 +14192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:55" s="12" customFormat="1">
       <c r="A69" s="1">
         <v>834</v>
       </c>
@@ -13991,7 +14335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:55" s="12" customFormat="1">
       <c r="A70" s="1">
         <v>892</v>
       </c>
@@ -14122,7 +14466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:55" s="12" customFormat="1">
       <c r="A71" s="1">
         <v>942</v>
       </c>
@@ -14271,7 +14615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:55" s="12" customFormat="1">
       <c r="A72" s="1">
         <v>851</v>
       </c>
@@ -14416,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:55" s="12" customFormat="1">
       <c r="A73" s="1">
         <v>893</v>
       </c>
@@ -14547,7 +14891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:55" s="12" customFormat="1">
       <c r="A74" s="1">
         <v>877</v>
       </c>
@@ -14692,7 +15036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:55" s="12" customFormat="1">
       <c r="A75" s="1">
         <v>882</v>
       </c>
@@ -14837,7 +15181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:55" s="12" customFormat="1">
       <c r="A76" s="1">
         <v>874</v>
       </c>
@@ -14982,7 +15326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:55" s="12" customFormat="1">
       <c r="A77" s="1">
         <v>880</v>
       </c>
@@ -15127,7 +15471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:55" s="12" customFormat="1">
       <c r="A78" s="1">
         <v>866</v>
       </c>
@@ -15272,7 +15616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:55" s="12" customFormat="1">
       <c r="A79" s="1">
         <v>909</v>
       </c>
@@ -15417,7 +15761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:55" s="12" customFormat="1">
       <c r="A80" s="1">
         <v>831</v>
       </c>
@@ -15560,7 +15904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:55" s="12" customFormat="1">
       <c r="A81" s="1">
         <v>943</v>
       </c>
@@ -15709,7 +16053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:55" s="12" customFormat="1">
       <c r="A82" s="1">
         <v>872</v>
       </c>
@@ -15854,7 +16198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:55" s="12" customFormat="1">
       <c r="A83" s="1">
         <v>836</v>
       </c>
@@ -15997,7 +16341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:55" s="12" customFormat="1">
       <c r="A84" s="1">
         <v>915</v>
       </c>
@@ -16142,7 +16486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:55" s="12" customFormat="1">
       <c r="A85" s="1">
         <v>914</v>
       </c>
@@ -16287,7 +16631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:55" s="12" customFormat="1">
       <c r="A86" s="1">
         <v>853</v>
       </c>
@@ -16432,7 +16776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:55" s="12" customFormat="1">
       <c r="A87" s="1">
         <v>916</v>
       </c>
@@ -16577,7 +16921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:55" s="12" customFormat="1">
       <c r="A88" s="1">
         <v>912</v>
       </c>
@@ -16722,7 +17066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:55" s="12" customFormat="1">
       <c r="A89" s="1">
         <v>913</v>
       </c>
@@ -16867,7 +17211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:55" s="12" customFormat="1">
       <c r="A90" s="1">
         <v>532</v>
       </c>
@@ -17016,7 +17360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:55" s="12" customFormat="1">
       <c r="A91" s="1">
         <v>885</v>
       </c>
@@ -17143,7 +17487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:55" s="12" customFormat="1">
       <c r="A92" s="1">
         <v>921</v>
       </c>
@@ -17284,7 +17628,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:55" s="12" customFormat="1">
       <c r="A93" s="13">
         <v>961</v>
       </c>
@@ -17413,7 +17757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:55" s="12" customFormat="1">
       <c r="A94" s="13">
         <v>963</v>
       </c>
@@ -17542,7 +17886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:55" s="12" customFormat="1">
       <c r="A95" s="13">
         <v>971</v>
       </c>
@@ -17677,7 +18021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:55" s="12" customFormat="1">
       <c r="A96" s="13">
         <v>974</v>
       </c>
@@ -17812,7 +18156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:55" s="12" customFormat="1">
       <c r="A97" s="1">
         <v>919</v>
       </c>
@@ -17953,7 +18297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:55" s="12" customFormat="1">
       <c r="A98" s="1">
         <v>677</v>
       </c>
@@ -18100,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:55" s="12" customFormat="1">
       <c r="A99" s="1">
         <v>947</v>
       </c>
@@ -18243,7 +18587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:55" s="12" customFormat="1">
       <c r="A100" s="1">
         <v>952</v>
       </c>
@@ -18386,7 +18730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:55" s="12" customFormat="1">
       <c r="A101" s="1">
         <v>871</v>
       </c>
@@ -18517,7 +18861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:55" s="12" customFormat="1">
       <c r="A102" s="1">
         <v>932</v>
       </c>
@@ -18644,7 +18988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:55" s="12" customFormat="1">
       <c r="A103" s="1">
         <v>933</v>
       </c>
@@ -18771,7 +19115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:55" s="12" customFormat="1">
       <c r="A104" s="1">
         <v>934</v>
       </c>
@@ -18898,7 +19242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:55" s="12" customFormat="1">
       <c r="A105" s="1">
         <v>473</v>
       </c>
@@ -19025,7 +19369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:55" s="12" customFormat="1">
       <c r="A106" s="1">
         <v>533</v>
       </c>
@@ -19174,7 +19518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:55" s="12" customFormat="1">
       <c r="A107" s="1">
         <v>602</v>
       </c>
@@ -19301,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:55" s="12" customFormat="1">
       <c r="A108" s="1">
         <v>938</v>
       </c>
@@ -19432,7 +19776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:55" s="12" customFormat="1">
       <c r="A109" s="1">
         <v>939</v>
       </c>
@@ -19563,7 +19907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:55" s="12" customFormat="1">
       <c r="A110" s="1">
         <v>896</v>
       </c>
@@ -19690,7 +20034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:55" s="12" customFormat="1">
       <c r="A111" s="1">
         <v>902</v>
       </c>
@@ -19817,7 +20161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:55" s="12" customFormat="1">
       <c r="A112" s="1">
         <v>930</v>
       </c>
@@ -19944,7 +20288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:55" s="12" customFormat="1">
       <c r="A113" s="1">
         <v>936</v>
       </c>
@@ -20075,7 +20419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:55" s="12" customFormat="1">
       <c r="A114" s="1">
         <v>937</v>
       </c>
@@ -20206,7 +20550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:55" s="12" customFormat="1">
       <c r="A115" s="1">
         <v>929</v>
       </c>
@@ -20333,7 +20677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:55" s="12" customFormat="1">
       <c r="A116" s="1">
         <v>897</v>
       </c>
@@ -20460,7 +20804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:55" s="12" customFormat="1">
       <c r="A117" s="1">
         <v>895</v>
       </c>
@@ -20587,7 +20931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:55" s="12" customFormat="1">
       <c r="A118" s="1">
         <v>898</v>
       </c>
@@ -20714,7 +21058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:55" s="12" customFormat="1">
       <c r="A119" s="1">
         <v>931</v>
       </c>
@@ -20841,7 +21185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:55" s="12" customFormat="1">
       <c r="A120" s="1">
         <v>924</v>
       </c>
@@ -20982,7 +21326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:55" s="12" customFormat="1">
       <c r="A121" s="1">
         <v>925</v>
       </c>
@@ -21123,7 +21467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:55" s="12" customFormat="1">
       <c r="A122" s="1">
         <v>900</v>
       </c>
@@ -21250,7 +21594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:55" s="12" customFormat="1">
       <c r="A123" s="1">
         <v>920</v>
       </c>
@@ -21391,7 +21735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:55" s="12" customFormat="1">
       <c r="A124" s="1">
         <v>922</v>
       </c>
@@ -21532,7 +21876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:55" s="12" customFormat="1">
       <c r="A125" s="1">
         <v>854</v>
       </c>
@@ -21663,7 +22007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:55" s="12" customFormat="1">
       <c r="A126" s="1">
         <v>923</v>
       </c>
@@ -21804,7 +22148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:55" s="12" customFormat="1">
       <c r="A127" s="1">
         <v>926</v>
       </c>
@@ -21945,7 +22289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:55" s="12" customFormat="1">
       <c r="A128" s="1">
         <v>927</v>
       </c>
@@ -22086,7 +22430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:55" s="12" customFormat="1">
       <c r="A129" s="1">
         <v>901</v>
       </c>
@@ -22213,7 +22557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:55" s="12" customFormat="1">
       <c r="A130" s="1">
         <v>894</v>
       </c>
@@ -22340,7 +22684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:55" s="12" customFormat="1">
       <c r="A131" s="1">
         <v>928</v>
       </c>
@@ -22467,7 +22811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:55" s="12" customFormat="1">
       <c r="A132" s="1">
         <v>835</v>
       </c>
@@ -22610,7 +22954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:55" s="12" customFormat="1">
       <c r="A133" s="1">
         <v>917</v>
       </c>
@@ -22755,7 +23099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:55" s="12" customFormat="1">
       <c r="A134" s="1">
         <v>918</v>
       </c>
@@ -22900,7 +23244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:55" s="12" customFormat="1">
       <c r="A135" s="1">
         <v>840</v>
       </c>
@@ -23043,7 +23387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:55" s="12" customFormat="1">
       <c r="A136" s="1">
         <v>863</v>
       </c>
@@ -23188,7 +23532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:55" s="12" customFormat="1">
       <c r="A137" s="1">
         <v>865</v>
       </c>
@@ -23333,7 +23677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:55" s="12" customFormat="1">
       <c r="A138" s="1">
         <v>867</v>
       </c>
@@ -23478,7 +23822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:55" s="12" customFormat="1">
       <c r="A139" s="1">
         <v>869</v>
       </c>
@@ -23623,7 +23967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:55" s="12" customFormat="1">
       <c r="A140" s="1">
         <v>864</v>
       </c>
@@ -23768,7 +24112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:55" s="12" customFormat="1">
       <c r="A141" s="1">
         <v>868</v>
       </c>
@@ -23913,7 +24257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:55" s="12" customFormat="1">
       <c r="A142" s="1">
         <v>862</v>
       </c>
@@ -24058,7 +24402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:55" s="12" customFormat="1">
       <c r="A143" s="23">
         <v>884</v>
       </c>
@@ -24203,7 +24547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:55" s="12" customFormat="1">
       <c r="A144" s="1">
         <v>910</v>
       </c>
@@ -24348,7 +24692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:55" s="12" customFormat="1">
       <c r="A145" s="1">
         <v>842</v>
       </c>
@@ -24491,7 +24835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:55" s="12" customFormat="1">
       <c r="A146" s="1">
         <v>844</v>
       </c>
@@ -24634,7 +24978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:55" s="12" customFormat="1">
       <c r="A147" s="1">
         <v>843</v>
       </c>
@@ -24777,7 +25121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:55" s="12" customFormat="1">
       <c r="A148" s="1">
         <v>911</v>
       </c>
@@ -24922,7 +25266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:55" s="12" customFormat="1">
       <c r="A149" s="1">
         <v>873</v>
       </c>
@@ -25067,7 +25411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:55" s="12" customFormat="1">
       <c r="A150" s="1">
         <v>883</v>
       </c>
@@ -25212,7 +25556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:55" s="12" customFormat="1">
       <c r="A151" s="1">
         <v>838</v>
       </c>
@@ -25355,7 +25699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:55" s="12" customFormat="1">
       <c r="A152" s="1">
         <v>870</v>
       </c>
@@ -25500,7 +25844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:55" s="12" customFormat="1">
       <c r="A153" s="1">
         <v>861</v>
       </c>
@@ -25645,7 +25989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:55" s="12" customFormat="1">
       <c r="A154" s="1">
         <v>856</v>
       </c>
@@ -25790,7 +26134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:55" s="12" customFormat="1">
       <c r="A155" s="1">
         <v>846</v>
       </c>
@@ -25931,7 +26275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:55" s="12" customFormat="1">
       <c r="A156" s="13">
         <v>975</v>
       </c>
@@ -26064,7 +26408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:55" s="12" customFormat="1">
       <c r="A157" s="1">
         <v>852</v>
       </c>
@@ -26209,7 +26553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:55" s="12" customFormat="1">
       <c r="A158" s="13">
         <v>970</v>
       </c>
@@ -26338,7 +26682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:55" s="12" customFormat="1">
       <c r="A159" s="1">
         <v>907</v>
       </c>
@@ -26483,7 +26827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:55" s="12" customFormat="1">
       <c r="A160" s="1">
         <v>845</v>
       </c>
@@ -26626,7 +26970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:55" s="12" customFormat="1">
       <c r="A161" s="1">
         <v>857</v>
       </c>
@@ -26771,7 +27115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:55" s="12" customFormat="1">
       <c r="A162" s="13">
         <v>960</v>
       </c>
@@ -26904,7 +27248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:55" s="12" customFormat="1">
       <c r="A163" s="1">
         <v>850</v>
       </c>
@@ -27049,7 +27393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:55" s="12" customFormat="1">
       <c r="A164" s="1">
         <v>849</v>
       </c>
@@ -27194,7 +27538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:55" s="12" customFormat="1">
       <c r="A165" s="1">
         <v>906</v>
       </c>
@@ -27339,7 +27683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:55" s="12" customFormat="1">
       <c r="A166" s="1">
         <v>890</v>
       </c>
@@ -27470,7 +27814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:55" s="12" customFormat="1">
       <c r="A167" s="1">
         <v>951</v>
       </c>
@@ -27613,7 +27957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:55" s="12" customFormat="1">
       <c r="A168" s="13">
         <v>980</v>
       </c>
@@ -27746,7 +28090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:55" s="12" customFormat="1">
       <c r="A169" s="13">
         <v>972</v>
       </c>
@@ -27881,7 +28225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:55" s="12" customFormat="1">
       <c r="A170" s="13">
         <v>976</v>
       </c>
@@ -28014,7 +28358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:55" s="12" customFormat="1">
       <c r="A171" s="1">
         <v>955</v>
       </c>
@@ -28157,7 +28501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:55" s="12" customFormat="1">
       <c r="A172" s="1">
         <v>944</v>
       </c>
@@ -28300,7 +28644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:55" s="12" customFormat="1">
       <c r="A173" s="1">
         <v>958</v>
       </c>
@@ -28443,7 +28787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:55" s="12" customFormat="1">
       <c r="A174" s="1">
         <v>957</v>
       </c>
@@ -28576,7 +28920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:55" s="12" customFormat="1">
       <c r="A175" s="1">
         <v>956</v>
       </c>
@@ -28719,7 +29063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:55" s="12" customFormat="1">
       <c r="A176" s="1">
         <v>948</v>
       </c>
@@ -28862,7 +29206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:55" s="12" customFormat="1">
       <c r="A177" s="13">
         <v>979</v>
       </c>
@@ -28997,7 +29341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:55" s="12" customFormat="1">
       <c r="A178" s="13">
         <v>977</v>
       </c>
@@ -29130,7 +29474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:55" s="12" customFormat="1">
       <c r="A179" s="13">
         <v>962</v>
       </c>
@@ -29259,7 +29603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:55" s="12" customFormat="1">
       <c r="A180" s="1">
         <v>949</v>
       </c>
@@ -29400,7 +29744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:55" s="12" customFormat="1">
       <c r="A181" s="1">
         <v>905</v>
       </c>
@@ -29545,7 +29889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:55" s="12" customFormat="1">
       <c r="A182" s="13">
         <v>965</v>
       </c>
@@ -29680,7 +30024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:55" s="12" customFormat="1">
       <c r="A183" s="1">
         <v>946</v>
       </c>
@@ -29823,7 +30167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:55" s="12" customFormat="1">
       <c r="A184" s="13">
         <v>968</v>
       </c>
@@ -29956,7 +30300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:55" s="12" customFormat="1">
       <c r="A185" s="1">
         <v>117</v>
       </c>
@@ -30109,7 +30453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:55" s="12" customFormat="1">
       <c r="A186" s="1">
         <v>308</v>
       </c>
@@ -30262,7 +30606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:55" s="12" customFormat="1">
       <c r="A187" s="1">
         <v>129</v>
       </c>
@@ -30415,7 +30759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:55" s="12" customFormat="1">
       <c r="A188" s="1">
         <v>216</v>
       </c>
@@ -30568,7 +30912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:55" s="12" customFormat="1">
       <c r="A189" s="1">
         <v>721</v>
       </c>
@@ -30717,7 +31061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:55" s="12" customFormat="1">
       <c r="A190" s="1">
         <v>263</v>
       </c>
@@ -30870,7 +31214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:55" s="12" customFormat="1">
       <c r="A191" s="1">
         <v>110</v>
       </c>
@@ -31023,7 +31367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:55" s="12" customFormat="1">
       <c r="A192" s="1">
         <v>899</v>
       </c>
@@ -31150,7 +31494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:55" s="12" customFormat="1">
       <c r="A193" s="1">
         <v>315</v>
       </c>
@@ -31293,7 +31637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:55" s="12" customFormat="1">
       <c r="A194" s="1">
         <v>935</v>
       </c>
@@ -31436,7 +31780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:55" s="12" customFormat="1">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -31533,7 +31877,7 @@
       <c r="BB195" s="10"/>
       <c r="BC195" s="10"/>
     </row>
-    <row r="196" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:55" s="12" customFormat="1">
       <c r="A196" s="1">
         <v>193</v>
       </c>
@@ -31630,7 +31974,7 @@
       <c r="BB196" s="10"/>
       <c r="BC196" s="10"/>
     </row>
-    <row r="197" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:55" s="12" customFormat="1">
       <c r="A197" s="1">
         <v>36</v>
       </c>
@@ -31729,7 +32073,7 @@
       <c r="BB197" s="10"/>
       <c r="BC197" s="10"/>
     </row>
-    <row r="198" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:55" s="12" customFormat="1">
       <c r="A198" s="1">
         <v>364</v>
       </c>
@@ -31826,7 +32170,7 @@
       <c r="BB198" s="10"/>
       <c r="BC198" s="10"/>
     </row>
-    <row r="199" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:55" s="12" customFormat="1">
       <c r="A199" s="1">
         <v>687</v>
       </c>
@@ -31917,7 +32261,7 @@
       <c r="BB199" s="10"/>
       <c r="BC199" s="10"/>
     </row>
-    <row r="200" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:55" s="12" customFormat="1">
       <c r="A200" s="1">
         <v>694</v>
       </c>
@@ -32010,7 +32354,7 @@
       <c r="BB200" s="10"/>
       <c r="BC200" s="10"/>
     </row>
-    <row r="201" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:55" s="12" customFormat="1">
       <c r="A201" s="1">
         <v>451</v>
       </c>
@@ -32103,7 +32447,7 @@
       <c r="BB201" s="10"/>
       <c r="BC201" s="10"/>
     </row>
-    <row r="202" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:55" s="12" customFormat="1">
       <c r="A202" s="1">
         <v>678</v>
       </c>
@@ -32192,7 +32536,7 @@
       <c r="BB202" s="10"/>
       <c r="BC202" s="10"/>
     </row>
-    <row r="203" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:55" s="12" customFormat="1">
       <c r="A203" s="1">
         <v>516</v>
       </c>
@@ -32275,7 +32619,7 @@
       <c r="BB203" s="10"/>
       <c r="BC203" s="10"/>
     </row>
-    <row r="204" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:55" s="12" customFormat="1">
       <c r="A204" s="1">
         <v>441</v>
       </c>
@@ -32368,7 +32712,7 @@
       <c r="BB204" s="10"/>
       <c r="BC204" s="10"/>
     </row>
-    <row r="205" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:55" s="12" customFormat="1">
       <c r="A205" s="1">
         <v>794</v>
       </c>
@@ -32441,7 +32785,7 @@
       <c r="BB205" s="10"/>
       <c r="BC205" s="10"/>
     </row>
-    <row r="206" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:55" s="12" customFormat="1">
       <c r="A206" s="1">
         <v>228</v>
       </c>
@@ -32594,7 +32938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:55" s="12" customFormat="1">
       <c r="A207" s="1">
         <v>21</v>
       </c>
@@ -32745,7 +33089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:55" s="12" customFormat="1">
       <c r="A208" s="1">
         <v>485</v>
       </c>
@@ -32894,7 +33238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:55" s="12" customFormat="1">
       <c r="A209" s="1">
         <v>544</v>
       </c>
@@ -33043,7 +33387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:55" s="12" customFormat="1">
       <c r="A210" s="1">
         <v>743</v>
       </c>
@@ -33192,7 +33536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:55" s="12" customFormat="1">
       <c r="A211" s="1">
         <v>554</v>
       </c>
@@ -33341,7 +33685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:55" s="12" customFormat="1">
       <c r="A212" s="1">
         <v>201</v>
       </c>
@@ -33494,7 +33838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:55" s="12" customFormat="1">
       <c r="A213" s="1">
         <v>374</v>
       </c>
@@ -33643,7 +33987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:55" s="12" customFormat="1">
       <c r="A214" s="1">
         <v>377</v>
       </c>
@@ -33792,7 +34136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:55" s="12" customFormat="1">
       <c r="A215" s="1">
         <v>12</v>
       </c>
@@ -33943,7 +34287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:55" s="12" customFormat="1">
       <c r="A216" s="1">
         <v>682</v>
       </c>
@@ -34088,7 +34432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:55" s="12" customFormat="1">
       <c r="A217" s="1">
         <v>691</v>
       </c>
@@ -34235,7 +34579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:55" s="12" customFormat="1">
       <c r="A218" s="1">
         <v>285</v>
       </c>
@@ -34388,7 +34732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:55" s="12" customFormat="1">
       <c r="A219" s="1">
         <v>370</v>
       </c>
@@ -34537,7 +34881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:55" s="12" customFormat="1">
       <c r="A220" s="1">
         <v>781</v>
       </c>
@@ -34686,7 +35030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:55" s="12" customFormat="1">
       <c r="A221" s="1">
         <v>465</v>
       </c>
@@ -34835,7 +35179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:55" s="12" customFormat="1">
       <c r="A222" s="1">
         <v>530</v>
       </c>
@@ -34980,7 +35324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:55" s="12" customFormat="1">
       <c r="A223" s="1">
         <v>456</v>
       </c>
@@ -35129,7 +35473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:55" s="12" customFormat="1">
       <c r="A224" s="1">
         <v>383</v>
       </c>
@@ -35278,7 +35622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:55" s="12" customFormat="1">
       <c r="A225" s="1">
         <v>388</v>
       </c>
@@ -35427,7 +35771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:55" s="12" customFormat="1">
       <c r="A226" s="1">
         <v>640</v>
       </c>
@@ -35562,7 +35906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:55" s="12" customFormat="1">
       <c r="A227" s="1">
         <v>237</v>
       </c>
@@ -35715,7 +36059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:55" s="12" customFormat="1">
       <c r="A228" s="1">
         <v>240</v>
       </c>
@@ -35868,7 +36212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:55" s="12" customFormat="1">
       <c r="A229" s="1">
         <v>662</v>
       </c>
@@ -36011,7 +36355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:55" s="12" customFormat="1">
       <c r="A230" s="1">
         <v>487</v>
       </c>
@@ -36160,7 +36504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:55" s="12" customFormat="1">
       <c r="A231" s="1">
         <v>527</v>
       </c>
@@ -36289,7 +36633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="232" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:55" s="12" customFormat="1">
       <c r="A232" s="1">
         <v>486</v>
       </c>
@@ -36438,7 +36782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:55" s="12" customFormat="1">
       <c r="A233" s="1">
         <v>509</v>
       </c>
@@ -36587,7 +36931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:55" s="12" customFormat="1">
       <c r="A234" s="1">
         <v>547</v>
       </c>
@@ -36736,7 +37080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:55" s="12" customFormat="1">
       <c r="A235" s="1">
         <v>488</v>
       </c>
@@ -36885,7 +37229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:55" s="12" customFormat="1">
       <c r="A236" s="1">
         <v>791</v>
       </c>
@@ -37034,7 +37378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:55" s="12" customFormat="1">
       <c r="A237" s="1">
         <v>776</v>
       </c>
@@ -37183,7 +37527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:55" s="12" customFormat="1">
       <c r="A238" s="1">
         <v>166</v>
       </c>
@@ -37314,7 +37658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:55" s="12" customFormat="1">
       <c r="A239" s="1">
         <v>506</v>
       </c>
@@ -37463,7 +37807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:55" s="12" customFormat="1">
       <c r="A240" s="1">
         <v>363</v>
       </c>
@@ -37592,7 +37936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:55" s="12" customFormat="1">
       <c r="A241" s="1">
         <v>72</v>
       </c>
@@ -37745,7 +38089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:55" s="12" customFormat="1">
       <c r="A242" s="1">
         <v>654</v>
       </c>
@@ -37884,7 +38228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:55" s="12" customFormat="1">
       <c r="A243" s="1">
         <v>653</v>
       </c>
@@ -38023,7 +38367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:55" s="12" customFormat="1">
       <c r="A244" s="1">
         <v>67</v>
       </c>
@@ -38172,7 +38516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:55" s="12" customFormat="1">
       <c r="A245" s="1">
         <v>734</v>
       </c>
@@ -38321,7 +38665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:55" s="12" customFormat="1">
       <c r="A246" s="1">
         <v>716</v>
       </c>
@@ -38470,7 +38814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:55" s="12" customFormat="1">
       <c r="A247" s="1">
         <v>378</v>
       </c>
@@ -38619,7 +38963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:55" s="12" customFormat="1">
       <c r="A248" s="1">
         <v>153</v>
       </c>
@@ -38772,7 +39116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:55" s="12" customFormat="1">
       <c r="A249" s="1">
         <v>252</v>
       </c>
@@ -38900,32 +39244,32 @@
       <c r="AU249" s="10">
         <v>0</v>
       </c>
-      <c r="AV249" s="37">
+      <c r="AV249" s="56">
         <v>143.33000000000001</v>
       </c>
-      <c r="AW249" s="37">
+      <c r="AW249" s="56">
         <v>10</v>
       </c>
-      <c r="AX249" s="37">
+      <c r="AX249" s="56">
         <v>286.70999999999998</v>
       </c>
       <c r="AY249" s="10">
         <v>0</v>
       </c>
-      <c r="AZ249" s="37">
+      <c r="AZ249" s="56">
         <v>66.73</v>
       </c>
-      <c r="BA249" s="37">
+      <c r="BA249" s="56">
         <v>2.57</v>
       </c>
-      <c r="BB249" s="37">
+      <c r="BB249" s="56">
         <v>266.92</v>
       </c>
       <c r="BC249" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:55" s="12" customFormat="1">
       <c r="A250" s="1">
         <v>496</v>
       </c>
@@ -39074,7 +39418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:55" s="12" customFormat="1">
       <c r="A251" s="1">
         <v>515</v>
       </c>
@@ -39223,7 +39567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:55" s="12" customFormat="1">
       <c r="A252" s="1">
         <v>338</v>
       </c>
@@ -39372,7 +39716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:55" s="12" customFormat="1">
       <c r="A253" s="1">
         <v>217</v>
       </c>
@@ -39525,7 +39869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="254" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:55" s="12" customFormat="1">
       <c r="A254" s="1">
         <v>330</v>
       </c>
@@ -39661,20 +40005,20 @@
       <c r="AY254" s="10">
         <v>0</v>
       </c>
-      <c r="AZ254" s="37">
+      <c r="AZ254" s="56">
         <v>82.35</v>
       </c>
-      <c r="BA254" s="37">
+      <c r="BA254" s="56">
         <v>3.17</v>
       </c>
-      <c r="BB254" s="37">
+      <c r="BB254" s="56">
         <v>164.7</v>
       </c>
       <c r="BC254" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:55" s="12" customFormat="1">
       <c r="A255" s="29">
         <v>300</v>
       </c>
@@ -39814,20 +40158,20 @@
       <c r="AY255" s="53">
         <v>0</v>
       </c>
-      <c r="AZ255" s="55">
+      <c r="AZ255" s="57">
         <v>82.39</v>
       </c>
-      <c r="BA255" s="55">
+      <c r="BA255" s="57">
         <v>3.15</v>
       </c>
-      <c r="BB255" s="55">
+      <c r="BB255" s="57">
         <v>341.92</v>
       </c>
       <c r="BC255" s="53">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:55" s="12" customFormat="1">
       <c r="A256" s="1">
         <v>65</v>
       </c>
@@ -39963,20 +40307,20 @@
       <c r="AY256" s="10">
         <v>0</v>
       </c>
-      <c r="AZ256" s="37">
+      <c r="AZ256" s="56">
         <v>49.45</v>
       </c>
-      <c r="BA256" s="37">
+      <c r="BA256" s="56">
         <v>1.67</v>
       </c>
-      <c r="BB256" s="37">
+      <c r="BB256" s="56">
         <v>148.38</v>
       </c>
       <c r="BC256" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:55" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:55" s="12" customFormat="1">
       <c r="A257" s="1">
         <v>372</v>
       </c>
@@ -40122,6 +40466,3367 @@
         <v>0</v>
       </c>
       <c r="BC257" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A258" s="1">
+        <v>773</v>
+      </c>
+      <c r="B258" s="17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C258" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E258" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F258" s="4"/>
+      <c r="G258" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H258" s="6">
+        <v>2008</v>
+      </c>
+      <c r="I258" s="1"/>
+      <c r="J258" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K258" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M258" s="4"/>
+      <c r="N258" s="1">
+        <v>3100</v>
+      </c>
+      <c r="O258" s="4"/>
+      <c r="P258" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q258" s="5">
+        <v>39022</v>
+      </c>
+      <c r="R258" s="8"/>
+      <c r="S258" s="8"/>
+      <c r="T258" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="U258" s="4"/>
+      <c r="V258" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X258" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y258" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z258" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA258" s="10">
+        <v>50</v>
+      </c>
+      <c r="AB258" s="10">
+        <v>4450</v>
+      </c>
+      <c r="AC258" s="10">
+        <v>8600</v>
+      </c>
+      <c r="AD258" s="10">
+        <v>11180</v>
+      </c>
+      <c r="AE258" s="10">
+        <v>10668.52</v>
+      </c>
+      <c r="AF258" s="10">
+        <v>80.72</v>
+      </c>
+      <c r="AG258" s="11">
+        <v>60</v>
+      </c>
+      <c r="AH258" s="10">
+        <v>187.16</v>
+      </c>
+      <c r="AI258" s="10">
+        <v>43</v>
+      </c>
+      <c r="AJ258" s="10">
+        <v>1.35</v>
+      </c>
+      <c r="AK258" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL258" s="10">
+        <v>52.5</v>
+      </c>
+      <c r="AM258" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AN258" s="10">
+        <v>210</v>
+      </c>
+      <c r="AO258" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP258" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ258" s="10"/>
+      <c r="AR258" s="10"/>
+      <c r="AS258" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT258" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU258" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV258" s="10">
+        <v>143.33000000000001</v>
+      </c>
+      <c r="AW258" s="10">
+        <v>10</v>
+      </c>
+      <c r="AX258" s="10">
+        <v>1290.07</v>
+      </c>
+      <c r="AY258" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ258" s="10">
+        <v>53.39</v>
+      </c>
+      <c r="BA258" s="10">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="BB258" s="37">
+        <v>0</v>
+      </c>
+      <c r="BC258" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A259" s="29">
+        <v>179</v>
+      </c>
+      <c r="B259" s="49" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C259" s="49" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D259" s="50" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E259" s="29" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F259" s="30"/>
+      <c r="G259" s="51" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H259" s="28">
+        <v>2002</v>
+      </c>
+      <c r="I259" s="29"/>
+      <c r="J259" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K259" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L259" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="M259" s="30"/>
+      <c r="N259" s="29">
+        <v>3491</v>
+      </c>
+      <c r="O259" s="30"/>
+      <c r="P259" s="29" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Q259" s="51">
+        <v>40030</v>
+      </c>
+      <c r="R259" s="31"/>
+      <c r="S259" s="31"/>
+      <c r="T259" s="29" t="s">
+        <v>1149</v>
+      </c>
+      <c r="U259" s="30"/>
+      <c r="V259" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="W259" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="X259" s="52" t="s">
+        <v>722</v>
+      </c>
+      <c r="Y259" s="53">
+        <v>6</v>
+      </c>
+      <c r="Z259" s="53">
+        <v>10</v>
+      </c>
+      <c r="AA259" s="53">
+        <v>30</v>
+      </c>
+      <c r="AB259" s="53">
+        <v>3210</v>
+      </c>
+      <c r="AC259" s="53">
+        <v>5500</v>
+      </c>
+      <c r="AD259" s="53">
+        <v>7150</v>
+      </c>
+      <c r="AE259" s="53">
+        <v>7080</v>
+      </c>
+      <c r="AF259" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG259" s="54">
+        <v>60</v>
+      </c>
+      <c r="AH259" s="53">
+        <v>70</v>
+      </c>
+      <c r="AI259" s="53">
+        <v>27.5</v>
+      </c>
+      <c r="AJ259" s="53">
+        <v>1.28</v>
+      </c>
+      <c r="AK259" s="53">
+        <v>0</v>
+      </c>
+      <c r="AL259" s="53">
+        <v>92.5</v>
+      </c>
+      <c r="AM259" s="53">
+        <v>5</v>
+      </c>
+      <c r="AN259" s="53">
+        <v>967.5</v>
+      </c>
+      <c r="AO259" s="55">
+        <v>0</v>
+      </c>
+      <c r="AP259" s="53">
+        <v>0</v>
+      </c>
+      <c r="AQ259" s="53">
+        <v>0</v>
+      </c>
+      <c r="AR259" s="53">
+        <v>0</v>
+      </c>
+      <c r="AS259" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT259" s="53">
+        <v>0</v>
+      </c>
+      <c r="AU259" s="53">
+        <v>0</v>
+      </c>
+      <c r="AV259" s="53">
+        <v>45.42</v>
+      </c>
+      <c r="AW259" s="53">
+        <v>10</v>
+      </c>
+      <c r="AX259" s="53">
+        <v>2194.58</v>
+      </c>
+      <c r="AY259" s="53">
+        <v>0</v>
+      </c>
+      <c r="AZ259" s="53">
+        <v>50</v>
+      </c>
+      <c r="BA259" s="53">
+        <v>12.33</v>
+      </c>
+      <c r="BB259" s="53">
+        <v>392.88</v>
+      </c>
+      <c r="BC259" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A260" s="1">
+        <v>642</v>
+      </c>
+      <c r="B260" s="17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C260" s="17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F260" s="4"/>
+      <c r="G260" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H260" s="6"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
+      <c r="M260" s="4"/>
+      <c r="N260" s="1"/>
+      <c r="O260" s="4"/>
+      <c r="P260" s="1"/>
+      <c r="Q260" s="5"/>
+      <c r="R260" s="8"/>
+      <c r="S260" s="8"/>
+      <c r="T260" s="1"/>
+      <c r="U260" s="4"/>
+      <c r="V260" s="1"/>
+      <c r="W260" s="1"/>
+      <c r="X260" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y260" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z260" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA260" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB260" s="10">
+        <v>13930</v>
+      </c>
+      <c r="AC260" s="10">
+        <v>10000</v>
+      </c>
+      <c r="AD260" s="10">
+        <v>12400</v>
+      </c>
+      <c r="AE260" s="10">
+        <v>7911.48</v>
+      </c>
+      <c r="AF260" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG260" s="11">
+        <v>48</v>
+      </c>
+      <c r="AH260" s="10">
+        <v>258.33</v>
+      </c>
+      <c r="AI260" s="10">
+        <v>50</v>
+      </c>
+      <c r="AJ260" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK260" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL260" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM260" s="10"/>
+      <c r="AN260" s="10"/>
+      <c r="AO260" s="10"/>
+      <c r="AP260" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ260" s="10"/>
+      <c r="AR260" s="10"/>
+      <c r="AS260" s="37">
+        <v>-227.25</v>
+      </c>
+      <c r="AT260" s="37"/>
+      <c r="AU260" s="37"/>
+      <c r="AV260" s="10">
+        <v>146.66999999999999</v>
+      </c>
+      <c r="AW260" s="10">
+        <v>10</v>
+      </c>
+      <c r="AX260" s="10">
+        <v>1319.98</v>
+      </c>
+      <c r="AY260" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ260" s="10">
+        <v>58.04</v>
+      </c>
+      <c r="BA260" s="10">
+        <v>1.42</v>
+      </c>
+      <c r="BB260" s="10"/>
+      <c r="BC260" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A261" s="1">
+        <v>641</v>
+      </c>
+      <c r="B261" s="22" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C261" s="22" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F261" s="4"/>
+      <c r="G261" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H261" s="6">
+        <v>1983</v>
+      </c>
+      <c r="I261" s="1"/>
+      <c r="J261" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K261" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L261" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M261" s="4"/>
+      <c r="N261" s="1">
+        <v>1936</v>
+      </c>
+      <c r="O261" s="4"/>
+      <c r="P261" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q261" s="5">
+        <v>30042</v>
+      </c>
+      <c r="R261" s="8"/>
+      <c r="S261" s="8"/>
+      <c r="T261" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="U261" s="4"/>
+      <c r="V261" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W261" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X261" s="18">
+        <v>14</v>
+      </c>
+      <c r="Y261" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z261" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA261" s="10">
+        <v>20</v>
+      </c>
+      <c r="AB261" s="10">
+        <v>6610</v>
+      </c>
+      <c r="AC261" s="10">
+        <v>10000</v>
+      </c>
+      <c r="AD261" s="10">
+        <v>11800</v>
+      </c>
+      <c r="AE261" s="10">
+        <v>10204.15</v>
+      </c>
+      <c r="AF261" s="10">
+        <v>518.14</v>
+      </c>
+      <c r="AG261" s="11">
+        <v>36</v>
+      </c>
+      <c r="AH261" s="10">
+        <v>343.56</v>
+      </c>
+      <c r="AI261" s="10">
+        <v>50</v>
+      </c>
+      <c r="AJ261" s="10">
+        <v>14.39</v>
+      </c>
+      <c r="AK261" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL261" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM261" s="10"/>
+      <c r="AN261" s="10"/>
+      <c r="AO261" s="10"/>
+      <c r="AP261" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ261" s="10"/>
+      <c r="AR261" s="10"/>
+      <c r="AS261" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT261" s="10"/>
+      <c r="AU261" s="10"/>
+      <c r="AV261" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW261" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX261" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY261" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ261" s="10">
+        <v>52.44</v>
+      </c>
+      <c r="BA261" s="10">
+        <v>2.02</v>
+      </c>
+      <c r="BB261" s="37"/>
+      <c r="BC261" s="59"/>
+    </row>
+    <row r="262" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A262" s="1">
+        <v>656</v>
+      </c>
+      <c r="B262" s="22" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C262" s="22" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F262" s="4"/>
+      <c r="G262" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H262" s="6">
+        <v>1990</v>
+      </c>
+      <c r="I262" s="1"/>
+      <c r="J262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K262" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M262" s="4"/>
+      <c r="N262" s="1">
+        <v>2244</v>
+      </c>
+      <c r="O262" s="4"/>
+      <c r="P262" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="Q262" s="5">
+        <v>33026</v>
+      </c>
+      <c r="R262" s="8"/>
+      <c r="S262" s="8"/>
+      <c r="T262" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="U262" s="4"/>
+      <c r="V262" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W262" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X262" s="18">
+        <v>14</v>
+      </c>
+      <c r="Y262" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z262" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA262" s="10">
+        <v>50</v>
+      </c>
+      <c r="AB262" s="10">
+        <v>5820</v>
+      </c>
+      <c r="AC262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG262" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM262" s="10"/>
+      <c r="AN262" s="10"/>
+      <c r="AO262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ262" s="10"/>
+      <c r="AR262" s="10"/>
+      <c r="AS262" s="10">
+        <v>50.18</v>
+      </c>
+      <c r="AT262" s="10">
+        <v>1.93</v>
+      </c>
+      <c r="AU262" s="10"/>
+      <c r="AV262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY262" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ262" s="10">
+        <v>125.19</v>
+      </c>
+      <c r="BA262" s="10">
+        <v>4.82</v>
+      </c>
+      <c r="BB262" s="37"/>
+      <c r="BC262" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A263" s="1">
+        <v>666</v>
+      </c>
+      <c r="B263" s="22" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C263" s="22" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F263" s="4"/>
+      <c r="G263" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H263" s="6">
+        <v>1992</v>
+      </c>
+      <c r="I263" s="1"/>
+      <c r="J263" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K263" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L263" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M263" s="4"/>
+      <c r="N263" s="1">
+        <v>2340</v>
+      </c>
+      <c r="O263" s="4"/>
+      <c r="P263" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q263" s="5">
+        <v>33664</v>
+      </c>
+      <c r="R263" s="8"/>
+      <c r="S263" s="8"/>
+      <c r="T263" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U263" s="4"/>
+      <c r="V263" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W263" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X263" s="18">
+        <v>14</v>
+      </c>
+      <c r="Y263" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z263" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA263" s="10">
+        <v>20</v>
+      </c>
+      <c r="AB263" s="10">
+        <v>5620</v>
+      </c>
+      <c r="AC263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG263" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM263" s="10"/>
+      <c r="AN263" s="10"/>
+      <c r="AO263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ263" s="10"/>
+      <c r="AR263" s="10"/>
+      <c r="AS263" s="44" t="s">
+        <v>685</v>
+      </c>
+      <c r="AT263" s="44" t="s">
+        <v>685</v>
+      </c>
+      <c r="AU263" s="10">
+        <v>13.19</v>
+      </c>
+      <c r="AV263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY263" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ263" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA263" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB263" s="10"/>
+      <c r="BC263" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A264" s="1">
+        <v>495</v>
+      </c>
+      <c r="B264" s="22" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C264" s="22" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F264" s="4"/>
+      <c r="G264" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H264" s="6">
+        <v>1998</v>
+      </c>
+      <c r="I264" s="1"/>
+      <c r="J264" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K264" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M264" s="4"/>
+      <c r="N264" s="1">
+        <v>2663</v>
+      </c>
+      <c r="O264" s="4"/>
+      <c r="P264" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="Q264" s="5">
+        <v>35582</v>
+      </c>
+      <c r="R264" s="8"/>
+      <c r="S264" s="8"/>
+      <c r="T264" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="U264" s="4"/>
+      <c r="V264" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="W264" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="X264" s="18">
+        <v>13</v>
+      </c>
+      <c r="Y264" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z264" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA264" s="10">
+        <v>20</v>
+      </c>
+      <c r="AB264" s="10">
+        <v>4140</v>
+      </c>
+      <c r="AC264" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD264" s="37">
+        <v>0</v>
+      </c>
+      <c r="AE264" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF264" s="37">
+        <v>0</v>
+      </c>
+      <c r="AG264" s="46">
+        <v>0</v>
+      </c>
+      <c r="AH264" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AI264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ264" s="10"/>
+      <c r="AR264" s="10"/>
+      <c r="AS264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY264" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ264" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA264" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB264" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC264" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A265" s="1">
+        <v>141</v>
+      </c>
+      <c r="B265" s="48">
+        <v>1527</v>
+      </c>
+      <c r="C265" s="48">
+        <v>3251</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F265" s="4"/>
+      <c r="G265" s="5" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H265" s="6">
+        <v>2008</v>
+      </c>
+      <c r="I265" s="1"/>
+      <c r="J265" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K265" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M265" s="4"/>
+      <c r="N265" s="1">
+        <v>3251</v>
+      </c>
+      <c r="O265" s="4"/>
+      <c r="P265" s="1"/>
+      <c r="Q265" s="5">
+        <v>39509</v>
+      </c>
+      <c r="R265" s="8"/>
+      <c r="S265" s="8"/>
+      <c r="T265" s="1"/>
+      <c r="U265" s="4"/>
+      <c r="V265" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W265" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X265" s="16" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y265" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z265" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA265" s="10">
+        <v>20</v>
+      </c>
+      <c r="AB265" s="10">
+        <v>1810</v>
+      </c>
+      <c r="AC265" s="10">
+        <v>3000</v>
+      </c>
+      <c r="AD265" s="10">
+        <v>3360</v>
+      </c>
+      <c r="AE265" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF265" s="37">
+        <v>0</v>
+      </c>
+      <c r="AG265" s="46">
+        <v>0</v>
+      </c>
+      <c r="AH265" s="37">
+        <v>0</v>
+      </c>
+      <c r="AI265" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ265" s="37">
+        <v>0</v>
+      </c>
+      <c r="AK265" s="37">
+        <v>0</v>
+      </c>
+      <c r="AL265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY265" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ265" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA265" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB265" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC265" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A266" s="1">
+        <v>220</v>
+      </c>
+      <c r="B266" s="21">
+        <v>1739</v>
+      </c>
+      <c r="C266" s="21">
+        <v>2936</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F266" s="4"/>
+      <c r="G266" s="5">
+        <v>15.06198</v>
+      </c>
+      <c r="H266" s="6">
+        <v>2012</v>
+      </c>
+      <c r="I266" s="1"/>
+      <c r="J266" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M266" s="4"/>
+      <c r="N266" s="1">
+        <v>2936</v>
+      </c>
+      <c r="O266" s="4"/>
+      <c r="P266" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="Q266" s="5">
+        <v>38853</v>
+      </c>
+      <c r="R266" s="8"/>
+      <c r="S266" s="8"/>
+      <c r="T266" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="U266" s="4"/>
+      <c r="V266" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W266" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X266" s="16" t="s">
+        <v>760</v>
+      </c>
+      <c r="Y266" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z266" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA266" s="10">
+        <v>30</v>
+      </c>
+      <c r="AB266" s="10">
+        <v>1230</v>
+      </c>
+      <c r="AC266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG266" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV266" s="37">
+        <v>0</v>
+      </c>
+      <c r="AW266" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX266" s="10">
+        <v>2150</v>
+      </c>
+      <c r="AY266" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ266" s="10">
+        <v>194.72</v>
+      </c>
+      <c r="BA266" s="10">
+        <v>7.49</v>
+      </c>
+      <c r="BB266" s="10">
+        <v>194.72</v>
+      </c>
+      <c r="BC266" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A267" s="1">
+        <v>18</v>
+      </c>
+      <c r="B267" s="22" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C267" s="22" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F267" s="4"/>
+      <c r="G267" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H267" s="6">
+        <v>1983</v>
+      </c>
+      <c r="I267" s="1"/>
+      <c r="J267" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K267" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L267" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M267" s="4"/>
+      <c r="N267" s="1">
+        <v>1817</v>
+      </c>
+      <c r="O267" s="4"/>
+      <c r="P267" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="Q267" s="5">
+        <v>29738</v>
+      </c>
+      <c r="R267" s="8"/>
+      <c r="S267" s="8"/>
+      <c r="T267" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U267" s="4"/>
+      <c r="V267" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W267" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X267" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y267" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z267" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA267" s="10">
+        <v>100</v>
+      </c>
+      <c r="AB267" s="10">
+        <v>17150</v>
+      </c>
+      <c r="AC267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG267" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR267" s="10"/>
+      <c r="AS267" s="10">
+        <v>130.6</v>
+      </c>
+      <c r="AT267" s="10">
+        <v>1.93</v>
+      </c>
+      <c r="AU267" s="10">
+        <v>229.77</v>
+      </c>
+      <c r="AV267" s="37">
+        <v>0</v>
+      </c>
+      <c r="AW267" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX267" s="10">
+        <v>372</v>
+      </c>
+      <c r="AY267" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ267" s="10"/>
+      <c r="BA267" s="10"/>
+      <c r="BB267" s="10"/>
+      <c r="BC267" s="62"/>
+    </row>
+    <row r="268" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A268" s="1">
+        <v>135</v>
+      </c>
+      <c r="B268" s="48">
+        <v>1782</v>
+      </c>
+      <c r="C268" s="48">
+        <v>3106</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F268" s="4"/>
+      <c r="G268" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H268" s="6">
+        <v>2012</v>
+      </c>
+      <c r="I268" s="1"/>
+      <c r="J268" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L268" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M268" s="4"/>
+      <c r="N268" s="1">
+        <v>3106</v>
+      </c>
+      <c r="O268" s="4"/>
+      <c r="P268" s="1"/>
+      <c r="Q268" s="5">
+        <v>39055</v>
+      </c>
+      <c r="R268" s="8"/>
+      <c r="S268" s="8"/>
+      <c r="T268" s="1"/>
+      <c r="U268" s="4"/>
+      <c r="V268" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W268" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X268" s="16" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y268" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z268" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA268" s="10">
+        <v>30</v>
+      </c>
+      <c r="AB268" s="10">
+        <v>1140</v>
+      </c>
+      <c r="AC268" s="10">
+        <v>2500</v>
+      </c>
+      <c r="AD268" s="10">
+        <v>2950</v>
+      </c>
+      <c r="AE268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG268" s="11">
+        <v>36</v>
+      </c>
+      <c r="AH268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV268" s="37">
+        <v>0</v>
+      </c>
+      <c r="AW268" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX268" s="10">
+        <v>2240</v>
+      </c>
+      <c r="AY268" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ268" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA268" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB268" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC268" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A269" s="1">
+        <v>673</v>
+      </c>
+      <c r="B269" s="22" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C269" s="22" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F269" s="4"/>
+      <c r="G269" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H269" s="6">
+        <v>1996</v>
+      </c>
+      <c r="I269" s="1"/>
+      <c r="J269" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L269" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M269" s="4"/>
+      <c r="N269" s="1">
+        <v>2409</v>
+      </c>
+      <c r="O269" s="4"/>
+      <c r="P269" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q269" s="5">
+        <v>34645</v>
+      </c>
+      <c r="R269" s="8"/>
+      <c r="S269" s="8"/>
+      <c r="T269" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U269" s="4"/>
+      <c r="V269" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W269" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X269" s="18">
+        <v>14</v>
+      </c>
+      <c r="Y269" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z269" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA269" s="10">
+        <v>50</v>
+      </c>
+      <c r="AB269" s="10">
+        <v>11550</v>
+      </c>
+      <c r="AC269" s="10">
+        <v>7500</v>
+      </c>
+      <c r="AD269" s="10">
+        <v>9300</v>
+      </c>
+      <c r="AE269" s="10">
+        <v>1356.25</v>
+      </c>
+      <c r="AF269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG269" s="11">
+        <v>48</v>
+      </c>
+      <c r="AH269" s="10">
+        <v>193.75</v>
+      </c>
+      <c r="AI269" s="10">
+        <v>37.5</v>
+      </c>
+      <c r="AJ269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM269" s="10"/>
+      <c r="AN269" s="10"/>
+      <c r="AO269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ269" s="10"/>
+      <c r="AR269" s="10"/>
+      <c r="AS269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY269" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ269" s="10">
+        <v>91.18</v>
+      </c>
+      <c r="BA269" s="10">
+        <v>3.51</v>
+      </c>
+      <c r="BB269" s="37"/>
+      <c r="BC269" s="59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="270" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A270" s="1">
+        <v>259</v>
+      </c>
+      <c r="B270" s="21">
+        <v>3034</v>
+      </c>
+      <c r="C270" s="21">
+        <v>3034</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F270" s="4"/>
+      <c r="G270" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H270" s="6">
+        <v>1997</v>
+      </c>
+      <c r="I270" s="1"/>
+      <c r="J270" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K270" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L270" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M270" s="4"/>
+      <c r="N270" s="1">
+        <v>3034</v>
+      </c>
+      <c r="O270" s="4"/>
+      <c r="P270" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q270" s="5">
+        <v>38915</v>
+      </c>
+      <c r="R270" s="8"/>
+      <c r="S270" s="8"/>
+      <c r="T270" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="U270" s="4"/>
+      <c r="V270" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W270" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X270" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y270" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z270" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA270" s="10">
+        <v>20</v>
+      </c>
+      <c r="AB270" s="10">
+        <v>2080</v>
+      </c>
+      <c r="AC270" s="10">
+        <v>4000</v>
+      </c>
+      <c r="AD270" s="10">
+        <v>4960</v>
+      </c>
+      <c r="AE270" s="10">
+        <v>3714.04</v>
+      </c>
+      <c r="AF270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG270" s="11">
+        <v>48</v>
+      </c>
+      <c r="AH270" s="10">
+        <v>103.33</v>
+      </c>
+      <c r="AI270" s="10">
+        <v>20</v>
+      </c>
+      <c r="AJ270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV270" s="37">
+        <v>0</v>
+      </c>
+      <c r="AW270" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX270" s="10">
+        <v>2240</v>
+      </c>
+      <c r="AY270" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ270" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA270" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB270" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC270" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A271" s="29">
+        <v>471</v>
+      </c>
+      <c r="B271" s="49" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C271" s="49" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D271" s="50" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E271" s="29" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F271" s="30"/>
+      <c r="G271" s="51" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H271" s="28">
+        <v>1993</v>
+      </c>
+      <c r="I271" s="29"/>
+      <c r="J271" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K271" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L271" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="M271" s="30"/>
+      <c r="N271" s="29">
+        <v>2362</v>
+      </c>
+      <c r="O271" s="30"/>
+      <c r="P271" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q271" s="51">
+        <v>33671</v>
+      </c>
+      <c r="R271" s="31"/>
+      <c r="S271" s="31"/>
+      <c r="T271" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="U271" s="30"/>
+      <c r="V271" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="W271" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="X271" s="29">
+        <v>13</v>
+      </c>
+      <c r="Y271" s="53">
+        <v>6</v>
+      </c>
+      <c r="Z271" s="53">
+        <v>10</v>
+      </c>
+      <c r="AA271" s="53">
+        <v>30</v>
+      </c>
+      <c r="AB271" s="53">
+        <v>8400</v>
+      </c>
+      <c r="AC271" s="53">
+        <v>7000</v>
+      </c>
+      <c r="AD271" s="53">
+        <v>8680</v>
+      </c>
+      <c r="AE271" s="53">
+        <v>4623.74</v>
+      </c>
+      <c r="AF271" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG271" s="54">
+        <v>48</v>
+      </c>
+      <c r="AH271" s="53">
+        <v>180.83</v>
+      </c>
+      <c r="AI271" s="53">
+        <v>35</v>
+      </c>
+      <c r="AJ271" s="53">
+        <v>0</v>
+      </c>
+      <c r="AK271" s="53">
+        <v>0</v>
+      </c>
+      <c r="AL271" s="53">
+        <v>0</v>
+      </c>
+      <c r="AM271" s="53">
+        <v>0</v>
+      </c>
+      <c r="AN271" s="53">
+        <v>0</v>
+      </c>
+      <c r="AO271" s="53">
+        <v>0</v>
+      </c>
+      <c r="AP271" s="53">
+        <v>0</v>
+      </c>
+      <c r="AQ271" s="53"/>
+      <c r="AR271" s="53"/>
+      <c r="AS271" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT271" s="53">
+        <v>0</v>
+      </c>
+      <c r="AU271" s="53">
+        <v>0</v>
+      </c>
+      <c r="AV271" s="55">
+        <v>0</v>
+      </c>
+      <c r="AW271" s="55">
+        <v>0</v>
+      </c>
+      <c r="AX271" s="53">
+        <v>2150</v>
+      </c>
+      <c r="AY271" s="53">
+        <v>0</v>
+      </c>
+      <c r="AZ271" s="53">
+        <v>0</v>
+      </c>
+      <c r="BA271" s="53">
+        <v>0</v>
+      </c>
+      <c r="BB271" s="53">
+        <v>0</v>
+      </c>
+      <c r="BC271" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A272" s="1">
+        <v>459</v>
+      </c>
+      <c r="B272" s="22" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C272" s="22" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F272" s="4"/>
+      <c r="G272" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H272" s="6">
+        <v>1986</v>
+      </c>
+      <c r="I272" s="1"/>
+      <c r="J272" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K272" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L272" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M272" s="4"/>
+      <c r="N272" s="1">
+        <v>2175</v>
+      </c>
+      <c r="O272" s="4"/>
+      <c r="P272" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q272" s="5">
+        <v>31138</v>
+      </c>
+      <c r="R272" s="8"/>
+      <c r="S272" s="8"/>
+      <c r="T272" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U272" s="4"/>
+      <c r="V272" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="W272" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="X272" s="18">
+        <v>13</v>
+      </c>
+      <c r="Y272" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z272" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA272" s="10">
+        <v>20</v>
+      </c>
+      <c r="AB272" s="10">
+        <v>6960</v>
+      </c>
+      <c r="AC272" s="10">
+        <v>7000</v>
+      </c>
+      <c r="AD272" s="10">
+        <v>8680</v>
+      </c>
+      <c r="AE272" s="10">
+        <v>6148.38</v>
+      </c>
+      <c r="AF272" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG272" s="11">
+        <v>48</v>
+      </c>
+      <c r="AH272" s="10">
+        <v>180.83</v>
+      </c>
+      <c r="AI272" s="10">
+        <v>35</v>
+      </c>
+      <c r="AJ272" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK272" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL272" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM272" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN272" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO272" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP272" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ272" s="10"/>
+      <c r="AR272" s="10"/>
+      <c r="AS272" s="37">
+        <v>0</v>
+      </c>
+      <c r="AT272" s="37">
+        <v>0</v>
+      </c>
+      <c r="AU272" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AV272" s="10">
+        <v>143.33000000000001</v>
+      </c>
+      <c r="AW272" s="10">
+        <v>10</v>
+      </c>
+      <c r="AX272" s="10">
+        <v>574.37</v>
+      </c>
+      <c r="AY272" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ272" s="10">
+        <v>63.23</v>
+      </c>
+      <c r="BA272" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="BB272" s="10">
+        <v>347.59</v>
+      </c>
+      <c r="BC272" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A273" s="1">
+        <v>264</v>
+      </c>
+      <c r="B273" s="21">
+        <v>3317</v>
+      </c>
+      <c r="C273" s="21">
+        <v>3317</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F273" s="4"/>
+      <c r="G273" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H273" s="6">
+        <v>2010</v>
+      </c>
+      <c r="I273" s="1"/>
+      <c r="J273" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L273" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M273" s="4"/>
+      <c r="N273" s="1">
+        <v>3317</v>
+      </c>
+      <c r="O273" s="4"/>
+      <c r="P273" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q273" s="5">
+        <v>39572</v>
+      </c>
+      <c r="R273" s="8"/>
+      <c r="S273" s="8"/>
+      <c r="T273" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="U273" s="4"/>
+      <c r="V273" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W273" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X273" s="16" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y273" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z273" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA273" s="10">
+        <v>50</v>
+      </c>
+      <c r="AB273" s="10">
+        <v>3700</v>
+      </c>
+      <c r="AC273" s="10">
+        <v>6000</v>
+      </c>
+      <c r="AD273" s="10">
+        <v>7440</v>
+      </c>
+      <c r="AE273" s="10">
+        <v>6630.06</v>
+      </c>
+      <c r="AF273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG273" s="11">
+        <v>48</v>
+      </c>
+      <c r="AH273" s="10">
+        <v>130</v>
+      </c>
+      <c r="AI273" s="10">
+        <v>30</v>
+      </c>
+      <c r="AJ273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV273" s="10">
+        <v>2150</v>
+      </c>
+      <c r="AW273" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX273" s="37">
+        <v>0</v>
+      </c>
+      <c r="AY273" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ273" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA273" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB273" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC273" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A274" s="1">
+        <v>676</v>
+      </c>
+      <c r="B274" s="22" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C274" s="22" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F274" s="4"/>
+      <c r="G274" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H274" s="6">
+        <v>1996</v>
+      </c>
+      <c r="I274" s="1"/>
+      <c r="J274" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L274" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M274" s="4"/>
+      <c r="N274" s="1">
+        <v>2465</v>
+      </c>
+      <c r="O274" s="4"/>
+      <c r="P274" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q274" s="5">
+        <v>34835</v>
+      </c>
+      <c r="R274" s="8"/>
+      <c r="S274" s="8"/>
+      <c r="T274" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="U274" s="4"/>
+      <c r="V274" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W274" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X274" s="18">
+        <v>14</v>
+      </c>
+      <c r="Y274" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z274" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA274" s="10">
+        <v>50</v>
+      </c>
+      <c r="AB274" s="10">
+        <v>10080</v>
+      </c>
+      <c r="AC274" s="10">
+        <v>7700</v>
+      </c>
+      <c r="AD274" s="10">
+        <v>9548</v>
+      </c>
+      <c r="AE274" s="10">
+        <v>6837.2</v>
+      </c>
+      <c r="AF274" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG274" s="11">
+        <v>48</v>
+      </c>
+      <c r="AH274" s="10">
+        <v>198.92</v>
+      </c>
+      <c r="AI274" s="10">
+        <v>38.5</v>
+      </c>
+      <c r="AJ274" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK274" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL274" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM274" s="10"/>
+      <c r="AN274" s="10"/>
+      <c r="AO274" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP274" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ274" s="10"/>
+      <c r="AR274" s="10"/>
+      <c r="AS274" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT274" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU274" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV274" s="10">
+        <v>143.33000000000001</v>
+      </c>
+      <c r="AW274" s="10">
+        <v>10</v>
+      </c>
+      <c r="AX274" s="10">
+        <v>584.29999999999995</v>
+      </c>
+      <c r="AY274" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ274" s="10">
+        <v>57.47</v>
+      </c>
+      <c r="BA274" s="10">
+        <v>1.94</v>
+      </c>
+      <c r="BB274" s="37"/>
+      <c r="BC274" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A275" s="1">
+        <v>236</v>
+      </c>
+      <c r="B275" s="21">
+        <v>1092</v>
+      </c>
+      <c r="C275" s="21">
+        <v>2635</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E275" s="7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F275" s="4"/>
+      <c r="G275" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H275" s="6">
+        <v>1998</v>
+      </c>
+      <c r="I275" s="1"/>
+      <c r="J275" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K275" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L275" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M275" s="4"/>
+      <c r="N275" s="1">
+        <v>2635</v>
+      </c>
+      <c r="O275" s="4"/>
+      <c r="P275" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="Q275" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="R275" s="8"/>
+      <c r="S275" s="8"/>
+      <c r="T275" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="U275" s="4"/>
+      <c r="V275" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W275" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X275" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="Y275" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z275" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA275" s="10">
+        <v>100</v>
+      </c>
+      <c r="AB275" s="10">
+        <v>13800</v>
+      </c>
+      <c r="AC275" s="10">
+        <v>10000</v>
+      </c>
+      <c r="AD275" s="10">
+        <v>12400</v>
+      </c>
+      <c r="AE275" s="10">
+        <v>10893.78</v>
+      </c>
+      <c r="AF275" s="10">
+        <v>147.31</v>
+      </c>
+      <c r="AG275" s="11">
+        <v>48</v>
+      </c>
+      <c r="AH275" s="10">
+        <v>259.37</v>
+      </c>
+      <c r="AI275" s="10">
+        <v>50</v>
+      </c>
+      <c r="AJ275" s="10">
+        <v>3.07</v>
+      </c>
+      <c r="AK275" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL275" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM275" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN275" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO275" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP275" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ275" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR275" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS275" s="37">
+        <v>0</v>
+      </c>
+      <c r="AT275" s="37">
+        <v>0</v>
+      </c>
+      <c r="AU275" s="10">
+        <v>97.97</v>
+      </c>
+      <c r="AV275" s="10">
+        <v>95.42</v>
+      </c>
+      <c r="AW275" s="10">
+        <v>10</v>
+      </c>
+      <c r="AX275" s="10">
+        <v>2099.16</v>
+      </c>
+      <c r="AY275" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ275" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA275" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB275" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC275" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A276" s="1">
+        <v>332</v>
+      </c>
+      <c r="B276" s="22" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C276" s="22" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F276" s="4"/>
+      <c r="G276" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H276" s="6">
+        <v>1996</v>
+      </c>
+      <c r="I276" s="1"/>
+      <c r="J276" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L276" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M276" s="4"/>
+      <c r="N276" s="1">
+        <v>2390</v>
+      </c>
+      <c r="O276" s="4"/>
+      <c r="P276" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q276" s="5">
+        <v>34639</v>
+      </c>
+      <c r="R276" s="8"/>
+      <c r="S276" s="8"/>
+      <c r="T276" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="U276" s="4"/>
+      <c r="V276" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="W276" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="X276" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="Y276" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z276" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA276" s="10">
+        <v>70</v>
+      </c>
+      <c r="AB276" s="10">
+        <v>5970</v>
+      </c>
+      <c r="AC276" s="10">
+        <v>10000</v>
+      </c>
+      <c r="AD276" s="10">
+        <v>13000</v>
+      </c>
+      <c r="AE276" s="10">
+        <v>300.17</v>
+      </c>
+      <c r="AF276" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG276" s="11">
+        <v>60</v>
+      </c>
+      <c r="AH276" s="10">
+        <v>217.5</v>
+      </c>
+      <c r="AI276" s="10">
+        <v>50</v>
+      </c>
+      <c r="AJ276" s="10">
+        <v>5</v>
+      </c>
+      <c r="AK276" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL276" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM276" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN276" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO276" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP276" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ276" s="10"/>
+      <c r="AR276" s="10"/>
+      <c r="AS276" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT276" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU276" s="10">
+        <v>0</v>
+      </c>
+      <c r="AV276" s="37">
+        <v>0</v>
+      </c>
+      <c r="AW276" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX276" s="10">
+        <v>2240</v>
+      </c>
+      <c r="AY276" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ276" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA276" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB276" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC276" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A277" s="1">
+        <v>313</v>
+      </c>
+      <c r="B277" s="21">
+        <v>1475</v>
+      </c>
+      <c r="C277" s="21">
+        <v>2242</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F277" s="4"/>
+      <c r="G277" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H277" s="6">
+        <v>2007</v>
+      </c>
+      <c r="I277" s="1"/>
+      <c r="J277" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L277" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M277" s="4"/>
+      <c r="N277" s="1">
+        <v>2949</v>
+      </c>
+      <c r="O277" s="4"/>
+      <c r="P277" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q277" s="5">
+        <v>38884</v>
+      </c>
+      <c r="R277" s="8"/>
+      <c r="S277" s="8"/>
+      <c r="T277" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="U277" s="4"/>
+      <c r="V277" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W277" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X277" s="16" t="s">
+        <v>825</v>
+      </c>
+      <c r="Y277" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z277" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA277" s="10">
+        <v>150</v>
+      </c>
+      <c r="AB277" s="10">
+        <v>14970</v>
+      </c>
+      <c r="AC277" s="10">
+        <v>11000</v>
+      </c>
+      <c r="AD277" s="10">
+        <v>14300</v>
+      </c>
+      <c r="AE277" s="10">
+        <v>12914.98</v>
+      </c>
+      <c r="AF277" s="10">
+        <v>672.1</v>
+      </c>
+      <c r="AG277" s="11">
+        <v>60</v>
+      </c>
+      <c r="AH277" s="10">
+        <v>239.17</v>
+      </c>
+      <c r="AI277" s="10">
+        <v>55</v>
+      </c>
+      <c r="AJ277" s="10">
+        <v>11.2</v>
+      </c>
+      <c r="AK277" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL277" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM277" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN277" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO277" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP277" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ277" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR277" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS277" s="37">
+        <v>0</v>
+      </c>
+      <c r="AT277" s="37">
+        <v>0</v>
+      </c>
+      <c r="AU277" s="10">
+        <v>204.05</v>
+      </c>
+      <c r="AV277" s="10">
+        <v>146.66999999999999</v>
+      </c>
+      <c r="AW277" s="10">
+        <v>10</v>
+      </c>
+      <c r="AX277" s="10">
+        <v>1319.98</v>
+      </c>
+      <c r="AY277" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ277" s="10">
+        <v>150.6</v>
+      </c>
+      <c r="BA277" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="BB277" s="10">
+        <v>1520.84</v>
+      </c>
+      <c r="BC277" s="59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="278" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A278" s="1">
+        <v>571</v>
+      </c>
+      <c r="B278" s="22" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F278" s="4"/>
+      <c r="G278" s="5" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H278" s="6">
+        <v>2002</v>
+      </c>
+      <c r="I278" s="1"/>
+      <c r="J278" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L278" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M278" s="4"/>
+      <c r="N278" s="1">
+        <v>3161</v>
+      </c>
+      <c r="O278" s="4"/>
+      <c r="P278" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q278" s="5">
+        <v>33223</v>
+      </c>
+      <c r="R278" s="8"/>
+      <c r="S278" s="8"/>
+      <c r="T278" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U278" s="4"/>
+      <c r="V278" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="W278" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="X278" s="18">
+        <v>13</v>
+      </c>
+      <c r="Y278" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z278" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA278" s="10">
+        <v>50</v>
+      </c>
+      <c r="AB278" s="10">
+        <v>6640</v>
+      </c>
+      <c r="AC278" s="10">
+        <v>12600</v>
+      </c>
+      <c r="AD278" s="10">
+        <v>16200</v>
+      </c>
+      <c r="AE278" s="10">
+        <v>14945.8</v>
+      </c>
+      <c r="AF278" s="10">
+        <v>360.2</v>
+      </c>
+      <c r="AG278" s="11">
+        <v>60</v>
+      </c>
+      <c r="AH278" s="10">
+        <v>260.83999999999997</v>
+      </c>
+      <c r="AI278" s="10">
+        <v>60</v>
+      </c>
+      <c r="AJ278" s="10">
+        <v>6</v>
+      </c>
+      <c r="AK278" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL278" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM278" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN278" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO278" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP278" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ278" s="10"/>
+      <c r="AR278" s="10"/>
+      <c r="AS278" s="37">
+        <v>0</v>
+      </c>
+      <c r="AT278" s="37">
+        <v>0</v>
+      </c>
+      <c r="AU278" s="10">
+        <v>42.42</v>
+      </c>
+      <c r="AV278" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW278" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX278" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY278" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ278" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA278" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB278" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC278" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A279" s="1">
+        <v>649</v>
+      </c>
+      <c r="B279" s="22" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C279" s="22" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F279" s="4"/>
+      <c r="G279" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H279" s="6">
+        <v>1986</v>
+      </c>
+      <c r="I279" s="1"/>
+      <c r="J279" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L279" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M279" s="4"/>
+      <c r="N279" s="1">
+        <v>2045</v>
+      </c>
+      <c r="O279" s="4"/>
+      <c r="P279" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q279" s="5">
+        <v>30499</v>
+      </c>
+      <c r="R279" s="8"/>
+      <c r="S279" s="8"/>
+      <c r="T279" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U279" s="4"/>
+      <c r="V279" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W279" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X279" s="18">
+        <v>14</v>
+      </c>
+      <c r="Y279" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z279" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA279" s="10">
+        <v>50</v>
+      </c>
+      <c r="AB279" s="10">
+        <v>7850</v>
+      </c>
+      <c r="AC279" s="10">
+        <v>7000</v>
+      </c>
+      <c r="AD279" s="10">
+        <v>8680</v>
+      </c>
+      <c r="AE279" s="10">
+        <v>6406.7</v>
+      </c>
+      <c r="AF279" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG279" s="11">
+        <v>48</v>
+      </c>
+      <c r="AH279" s="10">
+        <v>180.83</v>
+      </c>
+      <c r="AI279" s="10">
+        <v>35</v>
+      </c>
+      <c r="AJ279" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK279" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL279" s="10">
+        <v>50.75</v>
+      </c>
+      <c r="AM279" s="10"/>
+      <c r="AN279" s="10"/>
+      <c r="AO279" s="10">
+        <v>153.5</v>
+      </c>
+      <c r="AP279" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ279" s="10"/>
+      <c r="AR279" s="10"/>
+      <c r="AS279" s="10">
+        <v>-61.37</v>
+      </c>
+      <c r="AT279" s="37"/>
+      <c r="AU279" s="37"/>
+      <c r="AV279" s="10">
+        <v>-258.45</v>
+      </c>
+      <c r="AW279" s="37">
+        <v>0</v>
+      </c>
+      <c r="AX279" s="37"/>
+      <c r="AY279" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ279" s="10">
+        <v>195.94</v>
+      </c>
+      <c r="BA279" s="10">
+        <v>4.82</v>
+      </c>
+      <c r="BB279" s="37"/>
+      <c r="BC279" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:55" s="58" customFormat="1" ht="20.25">
+      <c r="A280" s="1">
+        <v>393</v>
+      </c>
+      <c r="B280" s="22" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C280" s="22" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F280" s="4"/>
+      <c r="G280" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H280" s="6">
+        <v>1998</v>
+      </c>
+      <c r="I280" s="1"/>
+      <c r="J280" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L280" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M280" s="4"/>
+      <c r="N280" s="1">
+        <v>2559</v>
+      </c>
+      <c r="O280" s="4"/>
+      <c r="P280" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q280" s="5">
+        <v>35445</v>
+      </c>
+      <c r="R280" s="8"/>
+      <c r="S280" s="8"/>
+      <c r="T280" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="U280" s="4"/>
+      <c r="V280" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W280" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X280" s="18">
+        <v>12</v>
+      </c>
+      <c r="Y280" s="10">
+        <v>6</v>
+      </c>
+      <c r="Z280" s="10">
+        <v>10</v>
+      </c>
+      <c r="AA280" s="10">
+        <v>30</v>
+      </c>
+      <c r="AB280" s="10">
+        <v>5380</v>
+      </c>
+      <c r="AC280" s="10">
+        <v>6500</v>
+      </c>
+      <c r="AD280" s="10">
+        <v>8060</v>
+      </c>
+      <c r="AE280" s="10">
+        <v>6246.56</v>
+      </c>
+      <c r="AF280" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG280" s="11">
+        <v>48</v>
+      </c>
+      <c r="AH280" s="10">
+        <v>167.92</v>
+      </c>
+      <c r="AI280" s="10">
+        <v>32.5</v>
+      </c>
+      <c r="AJ280" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK280" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL280" s="10">
+        <v>92.5</v>
+      </c>
+      <c r="AM280" s="10">
+        <v>5</v>
+      </c>
+      <c r="AN280" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO280" s="10">
+        <v>832.5</v>
+      </c>
+      <c r="AP280" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ280" s="10"/>
+      <c r="AR280" s="10"/>
+      <c r="AS280" s="37">
+        <v>0</v>
+      </c>
+      <c r="AT280" s="37">
+        <v>0</v>
+      </c>
+      <c r="AU280" s="10">
+        <v>90.9</v>
+      </c>
+      <c r="AV280" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW280" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX280" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY280" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ280" s="10">
+        <v>47.37</v>
+      </c>
+      <c r="BA280" s="10">
+        <v>1.48</v>
+      </c>
+      <c r="BB280" s="10">
+        <v>98.88</v>
+      </c>
+      <c r="BC280" s="59">
         <v>0</v>
       </c>
     </row>
